--- a/hojs/hojs/mascotas2.xlsx
+++ b/hojs/hojs/mascotas2.xlsx
@@ -9,7 +9,6 @@
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId3"/>
-    <sheet name="Sheet2" sheetId="2" state="visible" r:id="rId4"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -21,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="31">
   <si>
     <t xml:space="preserve">Nombre</t>
   </si>
@@ -114,25 +113,15 @@
   </si>
   <si>
     <t xml:space="preserve">14/02/2023</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Clínica Veterinaria “Patitas”</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mascotas dadas de alta</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Autorizado por doc</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="3">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="mm/dd/yy"/>
-    <numFmt numFmtId="166" formatCode="&quot;TRUE&quot;;&quot;TRUE&quot;;&quot;FALSE&quot;"/>
   </numFmts>
   <fonts count="5">
     <font>
@@ -213,7 +202,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -231,10 +220,6 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -424,7 +409,7 @@
   <dimension ref="A1:F12"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="180" zoomScaleNormal="180" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C10" activeCellId="0" sqref="C10"/>
+      <selection pane="topLeft" activeCell="A11" activeCellId="0" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -659,82 +644,4 @@
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:C8"/>
-  <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="180" zoomScaleNormal="180" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C5" activeCellId="0" sqref="C5"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
-  <sheetData>
-    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B4" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B5" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C5" s="5" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B6" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="C6" s="5" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B7" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="C7" s="5" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B8" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C8" s="5" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-    </row>
-  </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
-  </headerFooter>
-</worksheet>
 </file>